--- a/biology/Botanique/Droseraceae/Droseraceae.xlsx
+++ b/biology/Botanique/Droseraceae/Droseraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Droseraceae (Droséracées) est constituée de plantes dicotylédones ; elle comprend une centaine d'espèces réparties en 3 à 4 genres.
 Ce sont des plantes herbacées, carnivores, à mécanisme de capture actif ou passif, pérennes, rhizomateuses ou tubéreuses, souvent à feuilles en rosette, des régions froides, tempérées ou tropicales.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Drosera dérivé du grec δρόσος / drosos, rosée, en référence aux excrétions luisantes  émises par les glandes foliaires de la plante.
 </t>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Caryophyllales et place le genre Drosophyllum dans une famille dédiée, les Drosophyllaceae.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aldrovanda
@@ -609,13 +627,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (3 mai 2010)[1], World Checklist of Selected Plant Families (WCSP)  (3 mai 2010)[2], NCBI  (3 mai 2010)[3] et DELTA Angio           (3 mai 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (3 mai 2010), World Checklist of Selected Plant Families (WCSP)  (3 mai 2010), NCBI  (3 mai 2010) et DELTA Angio           (3 mai 2010) :
 genre Aldrovanda L., 1753 - plantes aquatiques flottantes, sans racine
 genre Dionaea J.Ellis, 1773
 genre Drosera L., 1753 - plantes de pleine lumière des marais et des tourbières acides
-Selon ITIS      (4 juin 2017)[5] :
+Selon ITIS      (4 juin 2017) :
 genre Dionaea Ellis
 genre Drosera L.</t>
         </is>
@@ -645,9 +665,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (3 mai 2010)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (3 mai 2010) :
 genre Aldrovanda
 Aldrovanda vesiculosa
 genre Dionaea
